--- a/papers/webservice-coalition-learning/figures/matlab/mlisa_chart_stats.xlsx
+++ b/papers/webservice-coalition-learning/figures/matlab/mlisa_chart_stats.xlsx
@@ -1163,11 +1163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81376768"/>
-        <c:axId val="81378304"/>
+        <c:axId val="36485376"/>
+        <c:axId val="36491264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81376768"/>
+        <c:axId val="36485376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1176,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81378304"/>
+        <c:crossAx val="36491264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1184,7 +1184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81378304"/>
+        <c:axId val="36491264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1214,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81376768"/>
+        <c:crossAx val="36485376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2114,11 +2114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81491840"/>
-        <c:axId val="81493376"/>
+        <c:axId val="165829248"/>
+        <c:axId val="165839232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81491840"/>
+        <c:axId val="165829248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2127,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81493376"/>
+        <c:crossAx val="165839232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2135,7 +2135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81493376"/>
+        <c:axId val="165839232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2165,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81491840"/>
+        <c:crossAx val="165829248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3065,11 +3065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81529088"/>
-        <c:axId val="81530880"/>
+        <c:axId val="165866496"/>
+        <c:axId val="165610240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81529088"/>
+        <c:axId val="165866496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3078,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81530880"/>
+        <c:crossAx val="165610240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3086,7 +3086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81530880"/>
+        <c:axId val="165610240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81529088"/>
+        <c:crossAx val="165866496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3109,6 +3109,1821 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AB$6:$AB$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>280.05512750000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.44827133333001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.62445199999667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.30603866666337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.65833266666999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>348.01245533333667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.31842266667007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.13193000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>342.84452766666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>344.35384133333326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>364.47553966666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343.53108066666346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>346.91721133333004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329.56344899999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.36930000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>309.74140233333338</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>319.93596866666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213.27118633333643</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.25336733333643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.793375999996897</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.893284333330179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>104.64574333333015</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125.55328199999985</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>142.03644299999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>107.4926926666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92.391182000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.502443000000014</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>102.80054466666661</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.078772333333291</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88.627394333333243</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100.46696766666658</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>108.26179266666684</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>140.40392100000008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159.10822466666681</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>175.11965966666685</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>143.48287366666682</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>117.93990133333318</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>105.77835366666659</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>120.4947926666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>190.85930366666676</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>286.47081666666662</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>339.1054126666665</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>351.34977999999956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AC$6:$AC$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>280.05512750000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.44827133333001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.62445199999667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.30603866666337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.65833266666999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>348.01245533333667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.31842266667007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.13193000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>342.84452766666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>344.35384133333326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>364.47553966666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343.53108066666346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>346.91721133333004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329.56344899999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.36930000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>407.19986300000318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>301.14106199999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194.47627966666974</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.157127000000099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.639216000000182</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91.753712000000021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>101.49637600000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>118.70936333333339</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>126.11478433333347</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>121.20011266666673</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>111.1772356666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107.79643933333318</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>111.0806289999967</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>103.5828856666664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>103.70770466666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100.79409466666978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>123.21456800000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>144.87456966666682</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>186.6625846666669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>235.47854766666691</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>289.55636999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>289.59118833333315</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>290.66828966666679</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>269.47168833333308</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>280.3726346666669</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>261.85484566666611</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>268.6865600000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>275.40467466666632</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>260.34270300000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>204.63667733333327</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>194.23261833333345</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>191.77839766666693</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>261.93729800000011</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>314.59552766663364</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>402.35641866666629</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>478.5362930000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>510.72679350005001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AD$6:$AD$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>280.05512750000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.44827133333001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.62445199999667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.30603866666337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.65833266666999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>348.01245533333667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.31842266667007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.13193000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>342.84452766666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>458.59448533333335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>478.95816866666672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>564.38854000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>452.58304099999987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>535.71443866666652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>324.48067699999984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>206.78594599999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.835045333333255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.708182333330114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105.8426043333302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115.18836499999695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>136.18020299999989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128.95239633333313</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130.48429499999989</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.04118700000011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>119.02962666666674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>105.50837933333332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>123.83741533333341</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>154.0383290000033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200.91745966666986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>220.36048500000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>250.3020296666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>234.21010133333343</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>203.55423499999961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176.06757599999642</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187.81367399999667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>186.33257966666679</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>231.94218433333359</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>291.87393199997013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>389.58517866663652</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>435.99296800000349</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>413.05999533333306</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>419.39081099999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>409.4117073333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>421.33592700000008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>387.35513966666684</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>367.4801966666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>397.79990066666687</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>513.82927099999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>634.21646766666652</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>645.36665366666659</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>612.2150070000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>488.37734533333361</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>492.5560510000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>535.33700799999986</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>558.63019633333295</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>486.30744266666687</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>442.61007066666571</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>544.62273666666681</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>669.73801733333312</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>704.48769900000116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AE$6:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>280.05512750000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.44827133333001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.62445199999667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459.02352066666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493.51459366667001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>558.88050766666993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451.23484733333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>418.90957566666657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>623.50905233333344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>770.68416966666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>951.21178733333329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>587.75981233333312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>354.78918000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>169.25908800000011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>182.06478666666681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187.05762999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153.72528799999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132.29375800000011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199.31719733333316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>278.70152733333362</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>407.98779033333329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>449.89962533333346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>399.89575033333614</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>405.30770433333356</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>449.58104500000019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>480.64365033333041</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>455.57085466666649</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>446.58792166666655</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>490.99651566666643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>528.76381266666669</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>536.47233999999969</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>570.92027533333328</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>582.91230899999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>686.04167366666661</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>712.70147233333353</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>795.70690833333299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>781.32112566666729</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>709.61412933333361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>594.03365966666627</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>447.35783566666578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>402.30364900000012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>376.8491336666678</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>320.05135166666759</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>260.37404299996587</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>203.03947866663293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>188.43353766663253</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>213.77576300000024</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200.6660513333336</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>210.51147300000108</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>185.25397066666724</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>194.35442933333252</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>174.24118699999963</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>173.15885800000009</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>153.99616266666757</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>182.08357766666691</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>232.43234766666623</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>336.79360133333222</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>550.3034583333332</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>528.75719566666646</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>507.2100893333336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>311.64388866666678</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>344.04306300000098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="165637504"/>
+        <c:axId val="165651584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165637504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165651584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165651584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165637504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AG$6:$AG$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.44340024999752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.99672219999803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.37754779999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368.12766879999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351.52451340000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359.09963860000204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>339.032155600002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348.24760680000202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.51694379999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348.91000619999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>343.57520159999802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>352.78811259999804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.94135899999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>335.78447679999806</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>319.94763019999812</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>326.78429180000182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255.5968618000019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.96158120000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>127.96271180000186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69.752020400001854</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.07602559999814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.535970599998109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.787445999998091</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94.40799479999805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121.75783639999808</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>108.20703599999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>113.30673339999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>108.4718562</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94.555393600000031</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.13213099999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97.152677199999928</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99.400864999999982</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100.58774080000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>119.71470300000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>137.81853640000008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>152.48310000000021</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>145.52424660000014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>143.62540159999989</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>131.70775960000009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>122.35618739999991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>153.06918799999985</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>217.50052539999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>255.05549419999988</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>287.67760974999965</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>339.1054126666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AH$6:$AH$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.44340024999752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.99672219999803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.37754779999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368.12766879999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351.52451340000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359.09963860000204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>339.032155600002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348.24760680000202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.51694379999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348.91000619999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>343.57520159999802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>352.78811259999804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.94135899999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>335.78447679999806</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>378.42270659999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>315.50734780000187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>244.31991780000189</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.6846372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.68576780000186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.694276200000058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.383529600000109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.052227200000019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.592101800000094</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107.60914760000014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>112.02682160000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>115.92863980000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>119.26326180000015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>115.80685959999991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>111.35139919999801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105.7441225999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105.31141479999988</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105.12151459999987</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>114.9949998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125.58777920000193</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>154.96933400000017</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194.05750560000016</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>238.84514440000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>254.79530620000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>281.53373760000011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>288.53060659999971</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>281.73175840000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>264.91282299999983</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>275.98782959999988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>272.57358939999978</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>259.43543180000017</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>230.54625519999973</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>232.00025300000016</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>213.29053440000024</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>222.4658292</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>264.55194779998021</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>331.92237920000008</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>393.0480340000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>442.21953325000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>478.5362930000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AI$6:$AI$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.44340024999752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.99672219999803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.37754779999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368.12766879999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351.52451340000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359.09963860000204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>339.032155600002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348.24760680000202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>404.06133020000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417.59958360000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>476.08967719999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>484.73199679999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>533.32153019999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>395.62139219999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.42866319999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>194.68840619999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>124.07156759999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.101027199999955</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.424909399998072</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.505562599998122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.214046199998123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118.133031199998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121.77597319999805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130.07971379999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128.45218079999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124.08073019999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>111.67661960000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.38319220000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>138.21315060000197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.40238320000191</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>186.18170720000018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>225.08934080000199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>224.62599480000191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>215.89125079999795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>210.17941059999794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>205.09790819999981</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177.50958079999799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>208.81866039999804</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>258.08972639998211</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>305.62014239998206</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>357.72623680000214</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>394.12617579998187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>418.08931839998183</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>428.2489020000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>413.17662480000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>388.90662139997983</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400.90102280000031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400.22207860000015</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>451.55715959999981</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>528.6293472000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>555.02898700000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>598.3980458000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>582.97581400000013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>542.26505500000019</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>539.07037000000014</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>530.93393959999992</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>466.72051639999989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>511.61000519999942</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>562.17395099999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>547.36112199999991</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>572.78370875000019</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>669.73801733333312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'General Stats'!$AJ$6:$AJ$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>315.46613666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312.44340024999752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.99672219999803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>417.80803699999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>434.04142540000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>478.04534480000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485.47998260000202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>465.41249960000198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>576.73666380000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>651.78172819999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700.81126740000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>658.65164279999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>613.30949080000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>428.26128879999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.48001299999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154.81699640000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.84057420000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171.9827598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172.8518619999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>225.82261860000017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>304.54085599999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350.55646439999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>386.38381400000179</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>428.13516020000026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>453.08417499999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>429.97733000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>431.53789780000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>481.09947779999823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>481.39061679999975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>479.04755839999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>514.59669159999976</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>550.60026919999984</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>560.84219080000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>631.62378639999986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>660.96286499999985</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>716.38293180000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>757.86429660000033</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>736.98395720000008</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>661.17812339999978</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>598.65811459999964</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500.94200160000037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>418.49492820000012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>364.92044800000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>300.74623159998009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>271.90391399998043</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>236.59838119997949</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>202.90220919997955</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>200.27273379998005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>206.68083920000063</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>192.23090440000016</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>203.82526880000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>182.96009360000025</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>175.72658840000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>169.91608259999992</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>181.05785780000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>198.57333940000026</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>267.4475311999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>407.34461799999991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>423.42995919999959</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>462.52343819999953</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>454.87154260000023</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>448.71377950000078</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>311.64388866666678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="165682560"/>
+        <c:axId val="165692544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165682560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165692544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165692544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165682560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3210,6 +5025,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3473,7 +5348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3481,15 +5356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:Z68"/>
+  <dimension ref="C3:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -3500,7 +5375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -3538,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>234.428787</v>
       </c>
@@ -3579,8 +5454,36 @@
         <f t="shared" si="0"/>
         <v>234.428787</v>
       </c>
+      <c r="AB6">
+        <f>AVERAGE(W5:W7)</f>
+        <v>280.05512750000003</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AE6" si="1">AVERAGE(X5:X7)</f>
+        <v>280.05512750000003</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>280.05512750000003</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>280.05512750000003</v>
+      </c>
+      <c r="AG6">
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AH6">
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AI6">
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AJ6">
+        <v>315.46613666666667</v>
+      </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>560.11025500000005</v>
       </c>
@@ -3606,7 +5509,7 @@
         <v>1.0365853658536499</v>
       </c>
       <c r="W7">
-        <f t="shared" ref="W7:W68" si="1">C7-C6</f>
+        <f t="shared" ref="W7:W68" si="2">C7-C6</f>
         <v>325.68146800000005</v>
       </c>
       <c r="X7">
@@ -3621,8 +5524,36 @@
         <f t="shared" si="0"/>
         <v>325.68146800000005</v>
       </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7:AB68" si="3">AVERAGE(W6:W8)</f>
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AC68" si="4">AVERAGE(X6:X8)</f>
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ref="AD7:AD68" si="5">AVERAGE(Y6:Y8)</f>
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" ref="AE7:AE68" si="6">AVERAGE(Z6:Z8)</f>
+        <v>315.46613666666667</v>
+      </c>
+      <c r="AG7">
+        <v>312.44340024999752</v>
+      </c>
+      <c r="AH7">
+        <v>312.44340024999752</v>
+      </c>
+      <c r="AI7">
+        <v>312.44340024999752</v>
+      </c>
+      <c r="AJ7">
+        <v>312.44340024999752</v>
+      </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>946.39841000000001</v>
       </c>
@@ -3648,7 +5579,7 @@
         <v>1.06024096385542</v>
       </c>
       <c r="W8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>386.28815499999996</v>
       </c>
       <c r="X8">
@@ -3663,8 +5594,36 @@
         <f t="shared" si="0"/>
         <v>386.28815499999996</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>338.44827133333001</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>338.44827133333001</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>338.44827133333001</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="6"/>
+        <v>338.44827133333001</v>
+      </c>
+      <c r="AG8">
+        <v>331.99672219999803</v>
+      </c>
+      <c r="AH8">
+        <v>331.99672219999803</v>
+      </c>
+      <c r="AI8">
+        <v>331.99672219999803</v>
+      </c>
+      <c r="AJ8">
+        <v>331.99672219999803</v>
+      </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1249.7736009999901</v>
       </c>
@@ -3690,7 +5649,7 @@
         <v>1.0833333333333299</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>303.37519099999008</v>
       </c>
       <c r="X9">
@@ -3705,8 +5664,36 @@
         <f t="shared" si="0"/>
         <v>303.37519099999008</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="3"/>
+        <v>366.62445199999667</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>366.62445199999667</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="5"/>
+        <v>366.62445199999667</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="6"/>
+        <v>366.62445199999667</v>
+      </c>
+      <c r="AG9">
+        <v>351.37754779999801</v>
+      </c>
+      <c r="AH9">
+        <v>351.37754779999801</v>
+      </c>
+      <c r="AI9">
+        <v>351.37754779999801</v>
+      </c>
+      <c r="AJ9">
+        <v>417.80803699999996</v>
+      </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1659.9836109999901</v>
       </c>
@@ -3732,7 +5719,7 @@
         <v>1.1058823529411701</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>410.21001000000001</v>
       </c>
       <c r="X10">
@@ -3747,8 +5734,36 @@
         <f t="shared" si="0"/>
         <v>410.21001000000001</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="3"/>
+        <v>348.30603866666337</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>348.30603866666337</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="5"/>
+        <v>348.30603866666337</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>459.02352066666668</v>
+      </c>
+      <c r="AG10">
+        <v>368.12766879999998</v>
+      </c>
+      <c r="AH10">
+        <v>368.12766879999998</v>
+      </c>
+      <c r="AI10">
+        <v>368.12766879999998</v>
+      </c>
+      <c r="AJ10">
+        <v>434.04142540000004</v>
+      </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1991.3165259999901</v>
       </c>
@@ -3774,7 +5789,7 @@
         <v>1.14942528735632</v>
       </c>
       <c r="W11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>331.33291499999996</v>
       </c>
       <c r="X11">
@@ -3789,8 +5804,36 @@
         <f t="shared" si="0"/>
         <v>663.48536100001002</v>
       </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>383.65833266666999</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>383.65833266666999</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="5"/>
+        <v>383.65833266666999</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="6"/>
+        <v>493.51459366667001</v>
+      </c>
+      <c r="AG11">
+        <v>351.52451340000005</v>
+      </c>
+      <c r="AH11">
+        <v>351.52451340000005</v>
+      </c>
+      <c r="AI11">
+        <v>351.52451340000005</v>
+      </c>
+      <c r="AJ11">
+        <v>478.04534480000001</v>
+      </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2400.748599</v>
       </c>
@@ -3816,7 +5859,7 @@
         <v>1.1704545454545401</v>
       </c>
       <c r="W12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>409.43207300000995</v>
       </c>
       <c r="X12">
@@ -3831,8 +5874,36 @@
         <f t="shared" si="0"/>
         <v>406.84841000000006</v>
       </c>
+      <c r="AB12">
+        <f t="shared" si="3"/>
+        <v>348.01245533333667</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>348.01245533333667</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>348.01245533333667</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="6"/>
+        <v>558.88050766666993</v>
+      </c>
+      <c r="AG12">
+        <v>359.09963860000204</v>
+      </c>
+      <c r="AH12">
+        <v>359.09963860000204</v>
+      </c>
+      <c r="AI12">
+        <v>359.09963860000204</v>
+      </c>
+      <c r="AJ12">
+        <v>485.47998260000202</v>
+      </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2704.0209770000001</v>
       </c>
@@ -3858,7 +5929,7 @@
         <v>1.2111111111111099</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>303.27237800000012</v>
       </c>
       <c r="X13">
@@ -3873,8 +5944,36 @@
         <f t="shared" si="0"/>
         <v>606.30775199999971</v>
       </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>351.31842266667007</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>351.31842266667007</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="5"/>
+        <v>351.31842266667007</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="6"/>
+        <v>451.23484733333333</v>
+      </c>
+      <c r="AG13">
+        <v>339.032155600002</v>
+      </c>
+      <c r="AH13">
+        <v>339.032155600002</v>
+      </c>
+      <c r="AI13">
+        <v>339.032155600002</v>
+      </c>
+      <c r="AJ13">
+        <v>465.41249960000198</v>
+      </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>3045.2717940000002</v>
       </c>
@@ -3900,7 +5999,7 @@
         <v>1.2307692307692299</v>
       </c>
       <c r="W14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>341.2508170000001</v>
       </c>
       <c r="X14">
@@ -3915,8 +6014,36 @@
         <f t="shared" si="0"/>
         <v>340.54838000000018</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>318.13193000000001</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>318.13193000000001</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>318.13193000000001</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="6"/>
+        <v>418.90957566666657</v>
+      </c>
+      <c r="AG14">
+        <v>348.24760680000202</v>
+      </c>
+      <c r="AH14">
+        <v>348.24760680000202</v>
+      </c>
+      <c r="AI14">
+        <v>348.24760680000202</v>
+      </c>
+      <c r="AJ14">
+        <v>576.73666380000009</v>
+      </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3355.144389</v>
       </c>
@@ -3942,7 +6069,7 @@
         <v>1.25</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>309.87259499999982</v>
       </c>
       <c r="X15">
@@ -3957,8 +6084,36 @@
         <f t="shared" si="0"/>
         <v>309.87259499999982</v>
       </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>342.84452766666664</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>342.84452766666664</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>342.84452766666664</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="6"/>
+        <v>623.50905233333344</v>
+      </c>
+      <c r="AG15">
+        <v>335.51694379999998</v>
+      </c>
+      <c r="AH15">
+        <v>335.51694379999998</v>
+      </c>
+      <c r="AI15">
+        <v>404.06133020000004</v>
+      </c>
+      <c r="AJ15">
+        <v>651.78172819999998</v>
+      </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>3732.55456</v>
       </c>
@@ -3984,7 +6139,7 @@
         <v>1.3125</v>
       </c>
       <c r="W16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>377.41017099999999</v>
       </c>
       <c r="X16">
@@ -3999,8 +6154,36 @@
         <f t="shared" si="0"/>
         <v>1220.1061820000004</v>
       </c>
+      <c r="AB16">
+        <f t="shared" si="3"/>
+        <v>344.35384133333326</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>344.35384133333326</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="5"/>
+        <v>458.59448533333335</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>770.68416966666666</v>
+      </c>
+      <c r="AG16">
+        <v>348.91000619999994</v>
+      </c>
+      <c r="AH16">
+        <v>348.91000619999994</v>
+      </c>
+      <c r="AI16">
+        <v>417.59958360000002</v>
+      </c>
+      <c r="AJ16">
+        <v>700.81126740000002</v>
+      </c>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>4078.333318</v>
       </c>
@@ -4026,7 +6209,7 @@
         <v>1.35353535353535</v>
       </c>
       <c r="W17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.77875799999993</v>
       </c>
       <c r="X17">
@@ -4041,8 +6224,36 @@
         <f t="shared" si="0"/>
         <v>782.07373199999984</v>
       </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>364.47553966666663</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>364.47553966666663</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>478.95816866666672</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="6"/>
+        <v>951.21178733333329</v>
+      </c>
+      <c r="AG17">
+        <v>343.57520159999802</v>
+      </c>
+      <c r="AH17">
+        <v>343.57520159999802</v>
+      </c>
+      <c r="AI17">
+        <v>476.08967719999998</v>
+      </c>
+      <c r="AJ17">
+        <v>658.65164279999988</v>
+      </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4448.5710079999999</v>
       </c>
@@ -4068,7 +6279,7 @@
         <v>1.3980582524271801</v>
       </c>
       <c r="W18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>370.23768999999993</v>
       </c>
       <c r="X18">
@@ -4083,8 +6294,36 @@
         <f t="shared" si="0"/>
         <v>851.45544799999971</v>
       </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>343.53108066666346</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>343.53108066666346</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>564.38854000000003</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="6"/>
+        <v>587.75981233333312</v>
+      </c>
+      <c r="AG18">
+        <v>352.78811259999804</v>
+      </c>
+      <c r="AH18">
+        <v>352.78811259999804</v>
+      </c>
+      <c r="AI18">
+        <v>484.73199679999999</v>
+      </c>
+      <c r="AJ18">
+        <v>613.30949080000005</v>
+      </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>4763.1478019999904</v>
       </c>
@@ -4110,7 +6349,7 @@
         <v>1.4095238095238001</v>
       </c>
       <c r="W19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>314.57679399999051</v>
       </c>
       <c r="X19">
@@ -4125,8 +6364,36 @@
         <f t="shared" si="0"/>
         <v>129.75025699999969</v>
       </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>346.91721133333004</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>346.91721133333004</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>452.58304099999987</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>354.78918000000004</v>
+      </c>
+      <c r="AG19">
+        <v>340.94135899999992</v>
+      </c>
+      <c r="AH19">
+        <v>340.94135899999992</v>
+      </c>
+      <c r="AI19">
+        <v>533.32153019999998</v>
+      </c>
+      <c r="AJ19">
+        <v>428.26128879999999</v>
+      </c>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5119.0849519999902</v>
       </c>
@@ -4152,7 +6419,7 @@
         <v>1.4150943396226401</v>
       </c>
       <c r="W20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>355.93714999999975</v>
       </c>
       <c r="X20">
@@ -4167,8 +6434,36 @@
         <f t="shared" si="0"/>
         <v>83.161835000000792</v>
       </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>329.56344899999993</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>329.56344899999993</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>535.71443866666652</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="6"/>
+        <v>169.25908800000011</v>
+      </c>
+      <c r="AG20">
+        <v>335.78447679999806</v>
+      </c>
+      <c r="AH20">
+        <v>335.78447679999806</v>
+      </c>
+      <c r="AI20">
+        <v>395.62139219999989</v>
+      </c>
+      <c r="AJ20">
+        <v>305.48001299999999</v>
+      </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5437.2613549999996</v>
       </c>
@@ -4194,7 +6489,7 @@
         <v>1.44144144144144</v>
       </c>
       <c r="W21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>318.17640300000949</v>
       </c>
       <c r="X21">
@@ -4209,8 +6504,36 @@
         <f t="shared" si="0"/>
         <v>294.8651719999998</v>
       </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>331.36930000000001</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>331.36930000000001</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>324.48067699999984</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="6"/>
+        <v>182.06478666666681</v>
+      </c>
+      <c r="AG21">
+        <v>319.94763019999812</v>
+      </c>
+      <c r="AH21">
+        <v>378.42270659999997</v>
+      </c>
+      <c r="AI21">
+        <v>321.42866319999996</v>
+      </c>
+      <c r="AJ21">
+        <v>154.81699640000005</v>
+      </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>5757.2557019999904</v>
       </c>
@@ -4236,23 +6559,51 @@
         <v>1.46086956521739</v>
       </c>
       <c r="W22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>319.99434699999074</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:X68" si="2">D22-D21</f>
+        <f t="shared" ref="X22:X68" si="7">D22-D21</f>
         <v>319.99434699999074</v>
       </c>
       <c r="Y22">
-        <f t="shared" ref="Y22:Y68" si="3">E22-E21</f>
+        <f t="shared" ref="Y22:Y68" si="8">E22-E21</f>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" ref="Z22:Z68" si="4">F22-F21</f>
+        <f t="shared" ref="Z22:Z68" si="9">F22-F21</f>
         <v>168.16735299999982</v>
       </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>309.74140233333338</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>407.19986300000318</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>206.78594599999997</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="6"/>
+        <v>187.05762999999993</v>
+      </c>
+      <c r="AG22">
+        <v>326.78429180000182</v>
+      </c>
+      <c r="AH22">
+        <v>315.50734780000187</v>
+      </c>
+      <c r="AI22">
+        <v>194.68840619999992</v>
+      </c>
+      <c r="AJ22">
+        <v>167.84057420000008</v>
+      </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>6048.3091589999904</v>
       </c>
@@ -4278,653 +6629,1101 @@
         <v>1.47008547008547</v>
       </c>
       <c r="W23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>291.05345699999998</v>
       </c>
       <c r="X23">
+        <f t="shared" si="7"/>
+        <v>583.42883900000925</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="9"/>
+        <v>98.140365000000202</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>319.93596866666667</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>301.14106199999998</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="6"/>
+        <v>153.72528799999995</v>
+      </c>
+      <c r="AG23">
+        <v>255.5968618000019</v>
+      </c>
+      <c r="AH23">
+        <v>244.31991780000189</v>
+      </c>
+      <c r="AI23">
+        <v>124.07156759999998</v>
+      </c>
+      <c r="AJ23">
+        <v>171.9827598</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>6397.0692609999996</v>
+      </c>
+      <c r="D24">
+        <v>6340.6845409999996</v>
+      </c>
+      <c r="E24">
+        <v>6399.1622109999998</v>
+      </c>
+      <c r="F24">
+        <v>7809.634599</v>
+      </c>
+      <c r="I24">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="J24">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="K24">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="L24">
+        <v>1.51219512195121</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="2"/>
-        <v>583.42883900000925</v>
-      </c>
-      <c r="Y23">
+        <v>348.76010200000928</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="9"/>
+        <v>194.8681459999998</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>213.27118633333643</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>194.47627966666974</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="6"/>
+        <v>132.29375800000011</v>
+      </c>
+      <c r="AG24">
+        <v>191.96158120000001</v>
+      </c>
+      <c r="AH24">
+        <v>180.6846372</v>
+      </c>
+      <c r="AI24">
+        <v>19.101027199999955</v>
+      </c>
+      <c r="AJ24">
+        <v>172.8518619999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>6397.0692609999996</v>
+      </c>
+      <c r="D25">
+        <v>6340.6845409999996</v>
+      </c>
+      <c r="E25">
+        <v>6399.1622109999998</v>
+      </c>
+      <c r="F25">
+        <v>7913.5073620000003</v>
+      </c>
+      <c r="I25">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="J25">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="K25">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="L25">
+        <v>1.52</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="9"/>
+        <v>103.8727630000003</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>116.25336733333643</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="5"/>
+        <v>31.835045333333255</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="6"/>
+        <v>199.31719733333316</v>
+      </c>
+      <c r="AG25">
+        <v>127.96271180000186</v>
+      </c>
+      <c r="AH25">
+        <v>116.68576780000186</v>
+      </c>
+      <c r="AI25">
+        <v>36.424909399998072</v>
+      </c>
+      <c r="AJ25">
+        <v>225.82261860000017</v>
+      </c>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>6397.0692609999996</v>
+      </c>
+      <c r="D26">
+        <v>6340.6845409999996</v>
+      </c>
+      <c r="E26">
+        <v>6494.6673469999996</v>
+      </c>
+      <c r="F26">
+        <v>8212.7180449999996</v>
+      </c>
+      <c r="I26">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="J26">
+        <v>1.3737373737373699</v>
+      </c>
+      <c r="K26">
+        <v>1.38</v>
+      </c>
+      <c r="L26">
+        <v>1.57462686567164</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="8"/>
+        <v>95.505135999999766</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="9"/>
+        <v>299.21068299999934</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="AC26">
         <f t="shared" si="4"/>
-        <v>98.140365000000202</v>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>60.708182333330114</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="6"/>
+        <v>278.70152733333362</v>
+      </c>
+      <c r="AG26">
+        <v>69.752020400001854</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>63.505562599998122</v>
+      </c>
+      <c r="AJ26">
+        <v>304.54085599999996</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E24">
-        <v>6399.1622109999998</v>
-      </c>
-      <c r="F24">
-        <v>7809.634599</v>
-      </c>
-      <c r="I24">
+      <c r="E27">
+        <v>6581.2867579999902</v>
+      </c>
+      <c r="F27">
+        <v>8645.7391810000008</v>
+      </c>
+      <c r="I27">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J24">
+      <c r="J27">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K24">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="L24">
-        <v>1.51219512195121</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>348.76010200000928</v>
-      </c>
-      <c r="X24">
+      <c r="K27">
+        <v>1.38613861386138</v>
+      </c>
+      <c r="L27">
+        <v>1.6153846153846101</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="X27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="8"/>
+        <v>86.619410999990578</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="9"/>
+        <v>433.02113600000121</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="AC27">
         <f t="shared" si="4"/>
-        <v>194.8681459999998</v>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="5"/>
+        <v>105.8426043333302</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="6"/>
+        <v>407.98779033333329</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>88.214046199998123</v>
+      </c>
+      <c r="AJ27">
+        <v>350.55646439999998</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E25">
-        <v>6399.1622109999998</v>
-      </c>
-      <c r="F25">
-        <v>7913.5073620000003</v>
-      </c>
-      <c r="I25">
+      <c r="E28">
+        <v>6716.6900239999904</v>
+      </c>
+      <c r="F28">
+        <v>9137.4707330000001</v>
+      </c>
+      <c r="I28">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J25">
+      <c r="J28">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K25">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="L25">
-        <v>1.52</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="K28">
+        <v>1.3980582524271801</v>
+      </c>
+      <c r="L28">
+        <v>1.6516129032258</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="X28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>135.40326600000026</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="9"/>
+        <v>491.73155199999928</v>
+      </c>
+      <c r="AB28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="AC28">
         <f t="shared" si="4"/>
-        <v>103.8727630000003</v>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="5"/>
+        <v>115.18836499999695</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="6"/>
+        <v>449.89962533333346</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>118.133031199998</v>
+      </c>
+      <c r="AJ28">
+        <v>386.38381400000179</v>
       </c>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E26">
-        <v>6494.6673469999996</v>
-      </c>
-      <c r="F26">
-        <v>8212.7180449999996</v>
-      </c>
-      <c r="I26">
+      <c r="E29">
+        <v>6840.2324419999904</v>
+      </c>
+      <c r="F29">
+        <v>9562.416921</v>
+      </c>
+      <c r="I29">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J26">
+      <c r="J29">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K26">
-        <v>1.38</v>
-      </c>
-      <c r="L26">
-        <v>1.57462686567164</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="K29">
+        <v>1.4095238095238001</v>
+      </c>
+      <c r="L29">
+        <v>1.68072289156626</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="X29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="8"/>
+        <v>123.542418</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="9"/>
+        <v>424.94618799999989</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="3"/>
-        <v>95.505135999999766</v>
-      </c>
-      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="4"/>
-        <v>299.21068299999934</v>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="5"/>
+        <v>136.18020299999989</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="6"/>
+        <v>399.89575033333614</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>121.77597319999805</v>
+      </c>
+      <c r="AJ29">
+        <v>428.13516020000026</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C30">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E27">
-        <v>6581.2867579999902</v>
-      </c>
-      <c r="F27">
-        <v>8645.7391810000008</v>
-      </c>
-      <c r="I27">
+      <c r="E30">
+        <v>6989.8273669999899</v>
+      </c>
+      <c r="F30">
+        <v>9845.4264320000093</v>
+      </c>
+      <c r="I30">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J27">
+      <c r="J30">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K27">
-        <v>1.38613861386138</v>
-      </c>
-      <c r="L27">
-        <v>1.6153846153846101</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
+      <c r="K30">
+        <v>1.42592592592592</v>
+      </c>
+      <c r="L30">
+        <v>1.6936416184971099</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="X30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="8"/>
+        <v>149.59492499999942</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="9"/>
+        <v>283.0095110000093</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="3"/>
-        <v>86.619410999990578</v>
-      </c>
-      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="4"/>
-        <v>433.02113600000121</v>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="5"/>
+        <v>128.95239633333313</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="6"/>
+        <v>405.30770433333356</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>130.07971379999998</v>
+      </c>
+      <c r="AJ30">
+        <v>453.08417499999996</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D28">
+      <c r="D31">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E28">
-        <v>6716.6900239999904</v>
-      </c>
-      <c r="F28">
-        <v>9137.4707330000001</v>
-      </c>
-      <c r="I28">
+      <c r="E31">
+        <v>7103.5472129999898</v>
+      </c>
+      <c r="F31">
+        <v>10353.393846000001</v>
+      </c>
+      <c r="I31">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J28">
+      <c r="J31">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K28">
-        <v>1.3980582524271801</v>
-      </c>
-      <c r="L28">
-        <v>1.6516129032258</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="K31">
+        <v>1.4363636363636301</v>
+      </c>
+      <c r="L31">
+        <v>1.7165775401069501</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="X31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="8"/>
+        <v>113.71984599999996</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="9"/>
+        <v>507.96741399999155</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="3"/>
-        <v>135.40326600000026</v>
-      </c>
-      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="4"/>
-        <v>491.73155199999928</v>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="5"/>
+        <v>130.48429499999989</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>449.58104500000019</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>128.45218079999995</v>
+      </c>
+      <c r="AJ31">
+        <v>429.97733000000005</v>
       </c>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E29">
-        <v>6840.2324419999904</v>
-      </c>
-      <c r="F29">
-        <v>9562.416921</v>
-      </c>
-      <c r="I29">
+      <c r="E32">
+        <v>7231.6853269999901</v>
+      </c>
+      <c r="F32">
+        <v>10911.160056000001</v>
+      </c>
+      <c r="I32">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J29">
+      <c r="J32">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K29">
-        <v>1.4095238095238001</v>
-      </c>
-      <c r="L29">
-        <v>1.68072289156626</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="K32">
+        <v>1.45132743362831</v>
+      </c>
+      <c r="L32">
+        <v>1.7450980392156801</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="X32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="8"/>
+        <v>128.13811400000031</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="9"/>
+        <v>557.76620999999977</v>
+      </c>
+      <c r="AB32">
         <f t="shared" si="3"/>
-        <v>123.542418</v>
-      </c>
-      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="4"/>
-        <v>424.94618799999989</v>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="5"/>
+        <v>123.04118700000011</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>480.64365033333041</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>124.08073019999992</v>
+      </c>
+      <c r="AJ32">
+        <v>431.53789780000005</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E30">
-        <v>6989.8273669999899</v>
-      </c>
-      <c r="F30">
-        <v>9845.4264320000093</v>
-      </c>
-      <c r="I30">
+      <c r="E33">
+        <v>7358.9509279999902</v>
+      </c>
+      <c r="F33">
+        <v>11287.357383</v>
+      </c>
+      <c r="I33">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J30">
+      <c r="J33">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K30">
-        <v>1.42592592592592</v>
-      </c>
-      <c r="L30">
-        <v>1.6936416184971099</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
+      <c r="K33">
+        <v>1.46086956521739</v>
+      </c>
+      <c r="L33">
+        <v>1.76036866359447</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="X33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="8"/>
+        <v>127.26560100000006</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="9"/>
+        <v>376.19732699999986</v>
+      </c>
+      <c r="AB33">
         <f t="shared" si="3"/>
-        <v>149.59492499999942</v>
-      </c>
-      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <f t="shared" si="4"/>
-        <v>283.0095110000093</v>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="5"/>
+        <v>119.02962666666674</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="6"/>
+        <v>455.57085466666649</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>111.67661960000005</v>
+      </c>
+      <c r="AJ33">
+        <v>481.09947779999823</v>
       </c>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C34">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E31">
-        <v>7103.5472129999898</v>
-      </c>
-      <c r="F31">
-        <v>10353.393846000001</v>
-      </c>
-      <c r="I31">
+      <c r="E34">
+        <v>7460.6360929999901</v>
+      </c>
+      <c r="F34">
+        <v>11720.10641</v>
+      </c>
+      <c r="I34">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J31">
+      <c r="J34">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K31">
-        <v>1.4363636363636301</v>
-      </c>
-      <c r="L31">
-        <v>1.7165775401069501</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="K34">
+        <v>1.47008547008547</v>
+      </c>
+      <c r="L34">
+        <v>1.7768240343347601</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="X34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="8"/>
+        <v>101.68516499999987</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="9"/>
+        <v>432.74902699999984</v>
+      </c>
+      <c r="AB34">
         <f t="shared" si="3"/>
-        <v>113.71984599999996</v>
-      </c>
-      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="4"/>
-        <v>507.96741399999155</v>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="5"/>
+        <v>105.50837933333332</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="6"/>
+        <v>446.58792166666655</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>18.694276200000058</v>
+      </c>
+      <c r="AI34">
+        <v>125.38319220000012</v>
+      </c>
+      <c r="AJ34">
+        <v>481.39061679999975</v>
       </c>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>6340.6845409999996</v>
       </c>
-      <c r="E32">
-        <v>7231.6853269999901</v>
-      </c>
-      <c r="F32">
-        <v>10911.160056000001</v>
-      </c>
-      <c r="I32">
+      <c r="E35">
+        <v>7548.2104649999901</v>
+      </c>
+      <c r="F35">
+        <v>12250.923821</v>
+      </c>
+      <c r="I35">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J32">
+      <c r="J35">
         <v>1.3737373737373699</v>
       </c>
-      <c r="K32">
-        <v>1.45132743362831</v>
-      </c>
-      <c r="L32">
-        <v>1.7450980392156801</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="K35">
+        <v>1.4745762711864401</v>
+      </c>
+      <c r="L35">
+        <v>1.79116465863453</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="X35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="8"/>
+        <v>87.574372000000039</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="9"/>
+        <v>530.81741099999999</v>
+      </c>
+      <c r="AB35">
         <f t="shared" si="3"/>
-        <v>128.13811400000031</v>
-      </c>
-      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="4"/>
-        <v>557.76620999999977</v>
+        <v>31.157127000000099</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="5"/>
+        <v>123.83741533333341</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="6"/>
+        <v>490.99651566666643</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>36.383529600000109</v>
+      </c>
+      <c r="AI35">
+        <v>138.21315060000197</v>
+      </c>
+      <c r="AJ35">
+        <v>479.04755839999996</v>
       </c>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="36" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D33">
-        <v>6340.6845409999996</v>
-      </c>
-      <c r="E33">
-        <v>7358.9509279999902</v>
-      </c>
-      <c r="F33">
-        <v>11287.357383</v>
-      </c>
-      <c r="I33">
+      <c r="D36">
+        <v>6434.1559219999999</v>
+      </c>
+      <c r="E36">
+        <v>7730.4631739999904</v>
+      </c>
+      <c r="F36">
+        <v>12760.34693</v>
+      </c>
+      <c r="I36">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J33">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="K33">
-        <v>1.46086956521739</v>
-      </c>
-      <c r="L33">
-        <v>1.76036866359447</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
+      <c r="J36">
+        <v>1.38</v>
+      </c>
+      <c r="K36">
+        <v>1.4959349593495901</v>
+      </c>
+      <c r="L36">
+        <v>1.8074074074074</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="X36">
+        <f t="shared" si="7"/>
+        <v>93.471381000000292</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="8"/>
+        <v>182.25270900000032</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="9"/>
+        <v>509.42310899999939</v>
+      </c>
+      <c r="AB36">
         <f t="shared" si="3"/>
-        <v>127.26560100000006</v>
-      </c>
-      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="4"/>
-        <v>376.19732699999986</v>
+        <v>60.639216000000182</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="5"/>
+        <v>154.0383290000033</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="6"/>
+        <v>528.76381266666669</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>55.052227200000019</v>
+      </c>
+      <c r="AI36">
+        <v>158.40238320000191</v>
+      </c>
+      <c r="AJ36">
+        <v>514.59669159999976</v>
       </c>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D34">
-        <v>6340.6845409999996</v>
-      </c>
-      <c r="E34">
-        <v>7460.6360929999901</v>
-      </c>
-      <c r="F34">
-        <v>11720.10641</v>
-      </c>
-      <c r="I34">
+      <c r="D37">
+        <v>6522.6021890000002</v>
+      </c>
+      <c r="E37">
+        <v>7922.75108</v>
+      </c>
+      <c r="F37">
+        <v>13306.397848000001</v>
+      </c>
+      <c r="I37">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J34">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="K34">
-        <v>1.47008547008547</v>
-      </c>
-      <c r="L34">
-        <v>1.7768240343347601</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="J37">
+        <v>1.38613861386138</v>
+      </c>
+      <c r="K37">
+        <v>1.52713178294573</v>
+      </c>
+      <c r="L37">
+        <v>1.82474226804123</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="X37">
+        <f t="shared" si="7"/>
+        <v>88.446267000000262</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="8"/>
+        <v>192.28790600000957</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="9"/>
+        <v>546.05091800000082</v>
+      </c>
+      <c r="AB37">
         <f t="shared" si="3"/>
-        <v>101.68516499999987</v>
-      </c>
-      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <f t="shared" si="4"/>
-        <v>432.74902699999984</v>
+        <v>91.753712000000021</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="5"/>
+        <v>200.91745966666986</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="6"/>
+        <v>536.47233999999969</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>79.592101800000094</v>
+      </c>
+      <c r="AI37">
+        <v>186.18170720000018</v>
+      </c>
+      <c r="AJ37">
+        <v>550.60026919999984</v>
       </c>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>6397.0692609999996</v>
       </c>
-      <c r="D35">
-        <v>6340.6845409999996</v>
-      </c>
-      <c r="E35">
-        <v>7548.2104649999901</v>
-      </c>
-      <c r="F35">
-        <v>12250.923821</v>
-      </c>
-      <c r="I35">
+      <c r="D38">
+        <v>6615.9456769999997</v>
+      </c>
+      <c r="E38">
+        <v>8150.9628439999997</v>
+      </c>
+      <c r="F38">
+        <v>13860.340840999999</v>
+      </c>
+      <c r="I38">
         <v>1.3737373737373699</v>
       </c>
-      <c r="J35">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="K35">
-        <v>1.4745762711864401</v>
-      </c>
-      <c r="L35">
-        <v>1.79116465863453</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
+      <c r="J38">
+        <v>1.39215686274509</v>
+      </c>
+      <c r="K38">
+        <v>1.5588235294117601</v>
+      </c>
+      <c r="L38">
+        <v>1.83809523809523</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="X38">
+        <f t="shared" si="7"/>
+        <v>93.343487999999525</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="8"/>
+        <v>228.21176399999968</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="9"/>
+        <v>553.94299299999875</v>
+      </c>
+      <c r="AB38">
         <f t="shared" si="3"/>
-        <v>87.574372000000039</v>
-      </c>
-      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <f t="shared" si="4"/>
-        <v>530.81741099999999</v>
+        <v>101.49637600000005</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="5"/>
+        <v>220.36048500000015</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="6"/>
+        <v>570.92027533333328</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>107.60914760000014</v>
+      </c>
+      <c r="AI38">
+        <v>225.08934080000199</v>
+      </c>
+      <c r="AJ38">
+        <v>560.84219080000003</v>
       </c>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>6397.0692609999996</v>
-      </c>
-      <c r="D36">
-        <v>6434.1559219999999</v>
-      </c>
-      <c r="E36">
-        <v>7730.4631739999904</v>
-      </c>
-      <c r="F36">
-        <v>12760.34693</v>
-      </c>
-      <c r="I36">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="J36">
-        <v>1.38</v>
-      </c>
-      <c r="K36">
-        <v>1.4959349593495901</v>
-      </c>
-      <c r="L36">
-        <v>1.8074074074074</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="2"/>
-        <v>93.471381000000292</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="3"/>
-        <v>182.25270900000032</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="4"/>
-        <v>509.42310899999939</v>
-      </c>
-    </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>6397.0692609999996</v>
-      </c>
-      <c r="D37">
-        <v>6522.6021890000002</v>
-      </c>
-      <c r="E37">
-        <v>7922.75108</v>
-      </c>
-      <c r="F37">
-        <v>13306.397848000001</v>
-      </c>
-      <c r="I37">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="J37">
-        <v>1.38613861386138</v>
-      </c>
-      <c r="K37">
-        <v>1.52713178294573</v>
-      </c>
-      <c r="L37">
-        <v>1.82474226804123</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="2"/>
-        <v>88.446267000000262</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="3"/>
-        <v>192.28790600000957</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="4"/>
-        <v>546.05091800000082</v>
-      </c>
-    </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>6397.0692609999996</v>
-      </c>
-      <c r="D38">
-        <v>6615.9456769999997</v>
-      </c>
-      <c r="E38">
-        <v>8150.9628439999997</v>
-      </c>
-      <c r="F38">
-        <v>13860.340840999999</v>
-      </c>
-      <c r="I38">
-        <v>1.3737373737373699</v>
-      </c>
-      <c r="J38">
-        <v>1.39215686274509</v>
-      </c>
-      <c r="K38">
-        <v>1.5588235294117601</v>
-      </c>
-      <c r="L38">
-        <v>1.83809523809523</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="2"/>
-        <v>93.343487999999525</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="3"/>
-        <v>228.21176399999968</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="4"/>
-        <v>553.94299299999875</v>
-      </c>
-    </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>6397.0692609999996</v>
       </c>
@@ -4950,23 +7749,51 @@
         <v>1.85545722713864</v>
       </c>
       <c r="W39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>122.69937300000038</v>
       </c>
       <c r="Y39">
+        <f t="shared" si="8"/>
+        <v>240.58178499999121</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="9"/>
+        <v>612.76691500000015</v>
+      </c>
+      <c r="AB39">
         <f t="shared" si="3"/>
-        <v>240.58178499999121</v>
-      </c>
-      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
         <f t="shared" si="4"/>
-        <v>612.76691500000015</v>
+        <v>118.70936333333339</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="5"/>
+        <v>250.3020296666667</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="6"/>
+        <v>582.91230899999994</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>112.02682160000003</v>
+      </c>
+      <c r="AI39">
+        <v>224.62599480000191</v>
+      </c>
+      <c r="AJ39">
+        <v>631.62378639999986</v>
       </c>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>6397.0692609999996</v>
       </c>
@@ -4992,23 +7819,51 @@
         <v>1.8681318681318599</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>140.08522900000025</v>
       </c>
       <c r="Y40">
+        <f t="shared" si="8"/>
+        <v>282.11254000000918</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="9"/>
+        <v>582.02701900000102</v>
+      </c>
+      <c r="AB40">
         <f t="shared" si="3"/>
-        <v>282.11254000000918</v>
-      </c>
-      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
         <f t="shared" si="4"/>
-        <v>582.02701900000102</v>
+        <v>126.11478433333347</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="5"/>
+        <v>234.21010133333343</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="6"/>
+        <v>686.04167366666661</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>115.92863980000001</v>
+      </c>
+      <c r="AI40">
+        <v>215.89125079999795</v>
+      </c>
+      <c r="AJ40">
+        <v>660.96286499999985</v>
       </c>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>6397.0692609999996</v>
       </c>
@@ -5034,23 +7889,51 @@
         <v>1.8972431077694201</v>
       </c>
       <c r="W41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>115.55975099999978</v>
       </c>
       <c r="Y41">
+        <f t="shared" si="8"/>
+        <v>179.93597899999986</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="9"/>
+        <v>863.33108699999866</v>
+      </c>
+      <c r="AB41">
         <f t="shared" si="3"/>
-        <v>179.93597899999986</v>
-      </c>
-      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <f t="shared" si="4"/>
-        <v>863.33108699999866</v>
+        <v>121.20011266666673</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="5"/>
+        <v>203.55423499999961</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="6"/>
+        <v>712.70147233333353</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>119.26326180000015</v>
+      </c>
+      <c r="AI41">
+        <v>210.17941059999794</v>
+      </c>
+      <c r="AJ41">
+        <v>716.38293180000005</v>
       </c>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>6397.0692609999996</v>
       </c>
@@ -5076,23 +7959,51 @@
         <v>1.9187935034802699</v>
       </c>
       <c r="W42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>107.95535800000016</v>
       </c>
       <c r="Y42">
+        <f t="shared" si="8"/>
+        <v>148.61418599998979</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="9"/>
+        <v>692.74631100000079</v>
+      </c>
+      <c r="AB42">
         <f t="shared" si="3"/>
-        <v>148.61418599998979</v>
-      </c>
-      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
         <f t="shared" si="4"/>
-        <v>692.74631100000079</v>
+        <v>111.1772356666667</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="5"/>
+        <v>176.06757599999642</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="6"/>
+        <v>795.70690833333299</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>115.80685959999991</v>
+      </c>
+      <c r="AI42">
+        <v>205.09790819999981</v>
+      </c>
+      <c r="AJ42">
+        <v>757.86429660000033</v>
       </c>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>6397.0692609999996</v>
       </c>
@@ -5118,23 +8029,51 @@
         <v>1.92841648590021</v>
       </c>
       <c r="W43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>110.01659800000016</v>
       </c>
       <c r="Y43">
+        <f t="shared" si="8"/>
+        <v>199.65256299999965</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="9"/>
+        <v>831.04332699999941</v>
+      </c>
+      <c r="AB43">
         <f t="shared" si="3"/>
-        <v>199.65256299999965</v>
-      </c>
-      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
         <f t="shared" si="4"/>
-        <v>831.04332699999941</v>
+        <v>107.79643933333318</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="5"/>
+        <v>187.81367399999667</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="6"/>
+        <v>781.32112566666729</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>111.35139919999801</v>
+      </c>
+      <c r="AI43">
+        <v>177.50958079999799</v>
+      </c>
+      <c r="AJ43">
+        <v>736.98395720000008</v>
       </c>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>6397.0692609999996</v>
       </c>
@@ -5160,23 +8099,51 @@
         <v>1.93548387096774</v>
       </c>
       <c r="W44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>105.41736199999923</v>
       </c>
       <c r="Y44">
+        <f t="shared" si="8"/>
+        <v>215.17427300000054</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="9"/>
+        <v>820.17373900000166</v>
+      </c>
+      <c r="AB44">
         <f t="shared" si="3"/>
-        <v>215.17427300000054</v>
-      </c>
-      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
         <f t="shared" si="4"/>
-        <v>820.17373900000166</v>
+        <v>111.0806289999967</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="5"/>
+        <v>186.33257966666679</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="6"/>
+        <v>709.61412933333361</v>
+      </c>
+      <c r="AG44">
+        <v>19.07602559999814</v>
+      </c>
+      <c r="AH44">
+        <v>105.7441225999999</v>
+      </c>
+      <c r="AI44">
+        <v>208.81866039999804</v>
+      </c>
+      <c r="AJ44">
+        <v>661.17812339999978</v>
       </c>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>6397.0692609999996</v>
       </c>
@@ -5202,23 +8169,51 @@
         <v>1.9423076923076901</v>
       </c>
       <c r="W45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>117.80792699999074</v>
       </c>
       <c r="Y45">
+        <f t="shared" si="8"/>
+        <v>144.17090300000018</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="9"/>
+        <v>477.62532199999987</v>
+      </c>
+      <c r="AB45">
         <f t="shared" si="3"/>
-        <v>144.17090300000018</v>
-      </c>
-      <c r="Z45">
+        <v>31.793375999996897</v>
+      </c>
+      <c r="AC45">
         <f t="shared" si="4"/>
-        <v>477.62532199999987</v>
+        <v>103.5828856666664</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="5"/>
+        <v>231.94218433333359</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="6"/>
+        <v>594.03365966666627</v>
+      </c>
+      <c r="AG45">
+        <v>36.535970599998109</v>
+      </c>
+      <c r="AH45">
+        <v>105.31141479999988</v>
+      </c>
+      <c r="AI45">
+        <v>258.08972639998211</v>
+      </c>
+      <c r="AJ45">
+        <v>598.65811459999964</v>
       </c>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>6492.4493889999903</v>
       </c>
@@ -5244,23 +8239,51 @@
         <v>1.9472727272727199</v>
       </c>
       <c r="W46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95.380127999990691</v>
       </c>
       <c r="X46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>87.523368000009214</v>
       </c>
       <c r="Y46">
+        <f t="shared" si="8"/>
+        <v>336.48137700000007</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="9"/>
+        <v>484.30191799999739</v>
+      </c>
+      <c r="AB46">
         <f t="shared" si="3"/>
-        <v>336.48137700000007</v>
-      </c>
-      <c r="Z46">
+        <v>60.893284333330179</v>
+      </c>
+      <c r="AC46">
         <f t="shared" si="4"/>
-        <v>484.30191799999739</v>
+        <v>103.70770466666666</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="5"/>
+        <v>291.87393199997013</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="6"/>
+        <v>447.35783566666578</v>
+      </c>
+      <c r="AG46">
+        <v>62.787445999998091</v>
+      </c>
+      <c r="AH46">
+        <v>105.12151459999987</v>
+      </c>
+      <c r="AI46">
+        <v>305.62014239998206</v>
+      </c>
+      <c r="AJ46">
+        <v>500.94200160000037</v>
       </c>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>6579.7491139999902</v>
       </c>
@@ -5286,23 +8309,51 @@
         <v>1.9498269896193701</v>
       </c>
       <c r="W47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.299724999999853</v>
       </c>
       <c r="X47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>105.79181900000003</v>
       </c>
       <c r="Y47">
+        <f t="shared" si="8"/>
+        <v>394.96951599991007</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="9"/>
+        <v>380.14626700000008</v>
+      </c>
+      <c r="AB47">
         <f t="shared" si="3"/>
-        <v>394.96951599991007</v>
-      </c>
-      <c r="Z47">
+        <v>104.64574333333015</v>
+      </c>
+      <c r="AC47">
         <f t="shared" si="4"/>
-        <v>380.14626700000008</v>
+        <v>100.79409466666978</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="5"/>
+        <v>389.58517866663652</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="6"/>
+        <v>402.30364900000012</v>
+      </c>
+      <c r="AG47">
+        <v>94.40799479999805</v>
+      </c>
+      <c r="AH47">
+        <v>114.9949998</v>
+      </c>
+      <c r="AI47">
+        <v>357.72623680000214</v>
+      </c>
+      <c r="AJ47">
+        <v>418.49492820000012</v>
       </c>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>6711.0064909999901</v>
       </c>
@@ -5328,23 +8379,51 @@
         <v>1.95230263157894</v>
       </c>
       <c r="W48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131.25737699999991</v>
       </c>
       <c r="X48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>109.0670970000001</v>
       </c>
       <c r="Y48">
+        <f t="shared" si="8"/>
+        <v>437.30464299999949</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="9"/>
+        <v>342.46276200000284</v>
+      </c>
+      <c r="AB48">
         <f t="shared" si="3"/>
-        <v>437.30464299999949</v>
-      </c>
-      <c r="Z48">
+        <v>125.55328199999985</v>
+      </c>
+      <c r="AC48">
         <f t="shared" si="4"/>
-        <v>342.46276200000284</v>
+        <v>123.21456800000003</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="5"/>
+        <v>435.99296800000349</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="6"/>
+        <v>376.8491336666678</v>
+      </c>
+      <c r="AG48">
+        <v>121.75783639999808</v>
+      </c>
+      <c r="AH48">
+        <v>125.58777920000193</v>
+      </c>
+      <c r="AI48">
+        <v>394.12617579998187</v>
+      </c>
+      <c r="AJ48">
+        <v>364.92044800000002</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>6869.1092349999899</v>
       </c>
@@ -5370,23 +8449,51 @@
         <v>1.9546874999999999</v>
       </c>
       <c r="W49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158.1027439999998</v>
       </c>
       <c r="X49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>154.78478799999993</v>
       </c>
       <c r="Y49">
+        <f t="shared" si="8"/>
+        <v>475.70474500010096</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="9"/>
+        <v>407.93837200000053</v>
+      </c>
+      <c r="AB49">
         <f t="shared" si="3"/>
-        <v>475.70474500010096</v>
-      </c>
-      <c r="Z49">
+        <v>142.03644299999996</v>
+      </c>
+      <c r="AC49">
         <f t="shared" si="4"/>
-        <v>407.93837200000053</v>
+        <v>144.87456966666682</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="5"/>
+        <v>413.05999533333306</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="6"/>
+        <v>320.05135166666759</v>
+      </c>
+      <c r="AG49">
+        <v>108.20703599999997</v>
+      </c>
+      <c r="AH49">
+        <v>154.96933400000017</v>
+      </c>
+      <c r="AI49">
+        <v>418.08931839998183</v>
+      </c>
+      <c r="AJ49">
+        <v>300.74623159998009</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>7005.8584429999901</v>
       </c>
@@ -5412,23 +8519,51 @@
         <v>1.9562594268476601</v>
       </c>
       <c r="W50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136.74920800000018</v>
       </c>
       <c r="X50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>170.77182400000038</v>
       </c>
       <c r="Y50">
+        <f t="shared" si="8"/>
+        <v>326.17059799989875</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="9"/>
+        <v>209.75292099999933</v>
+      </c>
+      <c r="AB50">
         <f t="shared" si="3"/>
-        <v>326.17059799989875</v>
-      </c>
-      <c r="Z50">
+        <v>107.4926926666667</v>
+      </c>
+      <c r="AC50">
         <f t="shared" si="4"/>
-        <v>209.75292099999933</v>
+        <v>186.6625846666669</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="5"/>
+        <v>419.39081099999993</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="6"/>
+        <v>260.37404299996587</v>
+      </c>
+      <c r="AG50">
+        <v>113.30673339999994</v>
+      </c>
+      <c r="AH50">
+        <v>194.05750560000016</v>
+      </c>
+      <c r="AI50">
+        <v>428.2489020000001</v>
+      </c>
+      <c r="AJ50">
+        <v>271.90391399998043</v>
       </c>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>7033.4845689999902</v>
       </c>
@@ -5454,23 +8589,51 @@
         <v>1.95815295815295</v>
       </c>
       <c r="W51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.626126000000113</v>
       </c>
       <c r="X51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>234.43114200000036</v>
       </c>
       <c r="Y51">
+        <f t="shared" si="8"/>
+        <v>456.29709000000003</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="9"/>
+        <v>163.43083599989768</v>
+      </c>
+      <c r="AB51">
         <f t="shared" si="3"/>
-        <v>456.29709000000003</v>
-      </c>
-      <c r="Z51">
+        <v>92.391182000000001</v>
+      </c>
+      <c r="AC51">
         <f t="shared" si="4"/>
-        <v>163.43083599989768</v>
+        <v>235.47854766666691</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="5"/>
+        <v>409.4117073333</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="6"/>
+        <v>203.03947866663293</v>
+      </c>
+      <c r="AG51">
+        <v>108.4718562</v>
+      </c>
+      <c r="AH51">
+        <v>238.84514440000004</v>
+      </c>
+      <c r="AI51">
+        <v>413.17662480000001</v>
+      </c>
+      <c r="AJ51">
+        <v>236.59838119997949</v>
       </c>
     </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>7146.2827809999899</v>
       </c>
@@ -5496,23 +8659,51 @@
         <v>1.9653739612188299</v>
       </c>
       <c r="W52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.79821199999969</v>
       </c>
       <c r="X52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>301.23267699999997</v>
       </c>
       <c r="Y52">
+        <f t="shared" si="8"/>
+        <v>445.76743400000123</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="9"/>
+        <v>235.93467900000178</v>
+      </c>
+      <c r="AB52">
         <f t="shared" si="3"/>
-        <v>445.76743400000123</v>
-      </c>
-      <c r="Z52">
+        <v>82.502443000000014</v>
+      </c>
+      <c r="AC52">
         <f t="shared" si="4"/>
-        <v>235.93467900000178</v>
+        <v>289.55636999999996</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="5"/>
+        <v>421.33592700000008</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="6"/>
+        <v>188.43353766663253</v>
+      </c>
+      <c r="AG52">
+        <v>94.555393600000031</v>
+      </c>
+      <c r="AH52">
+        <v>254.79530620000006</v>
+      </c>
+      <c r="AI52">
+        <v>388.90662139997983</v>
+      </c>
+      <c r="AJ52">
+        <v>202.90220919997955</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>7253.3657719999901</v>
       </c>
@@ -5538,23 +8729,51 @@
         <v>1.9667994687915</v>
       </c>
       <c r="W53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.08299100000022</v>
       </c>
       <c r="X53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>333.00529099999949</v>
       </c>
       <c r="Y53">
+        <f t="shared" si="8"/>
+        <v>361.94325699999899</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="9"/>
+        <v>165.93509799999811</v>
+      </c>
+      <c r="AB53">
         <f t="shared" si="3"/>
-        <v>361.94325699999899</v>
-      </c>
-      <c r="Z53">
+        <v>102.80054466666661</v>
+      </c>
+      <c r="AC53">
         <f t="shared" si="4"/>
-        <v>165.93509799999811</v>
+        <v>289.59118833333315</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="5"/>
+        <v>387.35513966666684</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="6"/>
+        <v>213.77576300000024</v>
+      </c>
+      <c r="AG53">
+        <v>85.13213099999993</v>
+      </c>
+      <c r="AH53">
+        <v>281.53373760000011</v>
+      </c>
+      <c r="AI53">
+        <v>400.90102280000031</v>
+      </c>
+      <c r="AJ53">
+        <v>200.27273379998005</v>
       </c>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>7341.88620299999</v>
       </c>
@@ -5580,23 +8799,51 @@
         <v>1.9733502538070999</v>
       </c>
       <c r="W54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.520430999999917</v>
       </c>
       <c r="X54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>234.53559700000005</v>
       </c>
       <c r="Y54">
+        <f t="shared" si="8"/>
+        <v>354.35472800000025</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="9"/>
+        <v>239.45751200000086</v>
+      </c>
+      <c r="AB54">
         <f t="shared" si="3"/>
-        <v>354.35472800000025</v>
-      </c>
-      <c r="Z54">
+        <v>95.078772333333291</v>
+      </c>
+      <c r="AC54">
         <f t="shared" si="4"/>
-        <v>239.45751200000086</v>
+        <v>290.66828966666679</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="5"/>
+        <v>367.4801966666667</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="6"/>
+        <v>200.6660513333336</v>
+      </c>
+      <c r="AG54">
+        <v>97.152677199999928</v>
+      </c>
+      <c r="AH54">
+        <v>288.53060659999971</v>
+      </c>
+      <c r="AI54">
+        <v>400.22207860000015</v>
+      </c>
+      <c r="AJ54">
+        <v>206.68083920000063</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>7431.5190979999898</v>
       </c>
@@ -5622,23 +8869,51 @@
         <v>1.97685749086479</v>
       </c>
       <c r="W55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.632894999999735</v>
       </c>
       <c r="X55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>304.46398100000079</v>
       </c>
       <c r="Y55">
+        <f t="shared" si="8"/>
+        <v>386.14260500000091</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="9"/>
+        <v>196.60554400000183</v>
+      </c>
+      <c r="AB55">
         <f t="shared" si="3"/>
-        <v>386.14260500000091</v>
-      </c>
-      <c r="Z55">
+        <v>88.627394333333243</v>
+      </c>
+      <c r="AC55">
         <f t="shared" si="4"/>
-        <v>196.60554400000183</v>
+        <v>269.47168833333308</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="5"/>
+        <v>397.79990066666687</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="6"/>
+        <v>210.51147300000108</v>
+      </c>
+      <c r="AG55">
+        <v>99.400864999999982</v>
+      </c>
+      <c r="AH55">
+        <v>281.73175840000005</v>
+      </c>
+      <c r="AI55">
+        <v>451.55715959999981</v>
+      </c>
+      <c r="AJ55">
+        <v>192.23090440000016</v>
       </c>
     </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>7519.2479549999898</v>
       </c>
@@ -5664,23 +8939,51 @@
         <v>1.9790454016298</v>
       </c>
       <c r="W56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.728857000000062</v>
       </c>
       <c r="X56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>269.41548699999839</v>
       </c>
       <c r="Y56">
+        <f t="shared" si="8"/>
+        <v>452.90236899999945</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="9"/>
+        <v>195.47136300000057</v>
+      </c>
+      <c r="AB56">
         <f t="shared" si="3"/>
-        <v>452.90236899999945</v>
-      </c>
-      <c r="Z56">
+        <v>100.46696766666658</v>
+      </c>
+      <c r="AC56">
         <f t="shared" si="4"/>
-        <v>195.47136300000057</v>
+        <v>280.3726346666669</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="5"/>
+        <v>513.82927099999995</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="6"/>
+        <v>185.25397066666724</v>
+      </c>
+      <c r="AG56">
+        <v>100.58774080000003</v>
+      </c>
+      <c r="AH56">
+        <v>264.91282299999983</v>
+      </c>
+      <c r="AI56">
+        <v>528.6293472000001</v>
+      </c>
+      <c r="AJ56">
+        <v>203.82526880000006</v>
       </c>
     </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>7643.2871059999898</v>
       </c>
@@ -5706,23 +9009,51 @@
         <v>1.9797979797979799</v>
       </c>
       <c r="W57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124.03915099999995</v>
       </c>
       <c r="X57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>267.23843600000146</v>
       </c>
       <c r="Y57">
+        <f t="shared" si="8"/>
+        <v>702.44283899999937</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="9"/>
+        <v>163.68500499999936</v>
+      </c>
+      <c r="AB57">
         <f t="shared" si="3"/>
-        <v>702.44283899999937</v>
-      </c>
-      <c r="Z57">
+        <v>108.26179266666684</v>
+      </c>
+      <c r="AC57">
         <f t="shared" si="4"/>
-        <v>163.68500499999936</v>
+        <v>261.85484566666611</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="5"/>
+        <v>634.21646766666652</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="6"/>
+        <v>194.35442933333252</v>
+      </c>
+      <c r="AG57">
+        <v>119.71470300000001</v>
+      </c>
+      <c r="AH57">
+        <v>275.98782959999988</v>
+      </c>
+      <c r="AI57">
+        <v>555.02898700000003</v>
+      </c>
+      <c r="AJ57">
+        <v>182.96009360000025</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>7756.3044759999902</v>
       </c>
@@ -5748,23 +9079,51 @@
         <v>1.98064516129032</v>
       </c>
       <c r="W58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113.01737000000048</v>
       </c>
       <c r="X58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>248.91061399999853</v>
       </c>
       <c r="Y58">
+        <f t="shared" si="8"/>
+        <v>747.30419500000062</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="9"/>
+        <v>223.90691999999763</v>
+      </c>
+      <c r="AB58">
         <f t="shared" si="3"/>
-        <v>747.30419500000062</v>
-      </c>
-      <c r="Z58">
+        <v>140.40392100000008</v>
+      </c>
+      <c r="AC58">
         <f t="shared" si="4"/>
-        <v>223.90691999999763</v>
+        <v>268.6865600000001</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="5"/>
+        <v>645.36665366666659</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="6"/>
+        <v>174.24118699999963</v>
+      </c>
+      <c r="AG58">
+        <v>137.81853640000008</v>
+      </c>
+      <c r="AH58">
+        <v>272.57358939999978</v>
+      </c>
+      <c r="AI58">
+        <v>598.3980458000002</v>
+      </c>
+      <c r="AJ58">
+        <v>175.72658840000003</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>7940.4597179999901</v>
       </c>
@@ -5790,23 +9149,51 @@
         <v>1.98115183246073</v>
       </c>
       <c r="W59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184.15524199999982</v>
       </c>
       <c r="X59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>289.91063000000031</v>
       </c>
       <c r="Y59">
+        <f t="shared" si="8"/>
+        <v>486.35292699999991</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="9"/>
+        <v>135.13163600000189</v>
+      </c>
+      <c r="AB59">
         <f t="shared" si="3"/>
-        <v>486.35292699999991</v>
-      </c>
-      <c r="Z59">
+        <v>159.10822466666681</v>
+      </c>
+      <c r="AC59">
         <f t="shared" si="4"/>
-        <v>135.13163600000189</v>
+        <v>275.40467466666632</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="5"/>
+        <v>612.2150070000007</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="6"/>
+        <v>173.15885800000009</v>
+      </c>
+      <c r="AG59">
+        <v>152.48310000000021</v>
+      </c>
+      <c r="AH59">
+        <v>259.43543180000017</v>
+      </c>
+      <c r="AI59">
+        <v>582.97581400000013</v>
+      </c>
+      <c r="AJ59">
+        <v>169.91608259999992</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>8120.6117799999902</v>
       </c>
@@ -5832,23 +9219,51 @@
         <v>1.98165137614678</v>
       </c>
       <c r="W60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180.15206200000011</v>
       </c>
       <c r="X60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>287.39278000000013</v>
       </c>
       <c r="Y60">
+        <f t="shared" si="8"/>
+        <v>602.98789900000156</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="9"/>
+        <v>160.43801800000074</v>
+      </c>
+      <c r="AB60">
         <f t="shared" si="3"/>
-        <v>602.98789900000156</v>
-      </c>
-      <c r="Z60">
+        <v>175.11965966666685</v>
+      </c>
+      <c r="AC60">
         <f t="shared" si="4"/>
-        <v>160.43801800000074</v>
+        <v>260.34270300000026</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="5"/>
+        <v>488.37734533333361</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="6"/>
+        <v>153.99616266666757</v>
+      </c>
+      <c r="AG60">
+        <v>145.52424660000014</v>
+      </c>
+      <c r="AH60">
+        <v>230.54625519999973</v>
+      </c>
+      <c r="AI60">
+        <v>542.26505500000019</v>
+      </c>
+      <c r="AJ60">
+        <v>181.05785780000005</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>8281.6634549999908</v>
       </c>
@@ -5874,23 +9289,51 @@
         <v>1.9822834645669201</v>
       </c>
       <c r="W61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161.05167500000061</v>
       </c>
       <c r="X61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>203.72469900000033</v>
       </c>
       <c r="Y61">
+        <f t="shared" si="8"/>
+        <v>375.79120999999941</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="9"/>
+        <v>166.41883400000006</v>
+      </c>
+      <c r="AB61">
         <f t="shared" si="3"/>
-        <v>375.79120999999941</v>
-      </c>
-      <c r="Z61">
+        <v>143.48287366666682</v>
+      </c>
+      <c r="AC61">
         <f t="shared" si="4"/>
-        <v>166.41883400000006</v>
+        <v>204.63667733333327</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="5"/>
+        <v>492.5560510000002</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="6"/>
+        <v>182.08357766666691</v>
+      </c>
+      <c r="AG61">
+        <v>143.62540159999989</v>
+      </c>
+      <c r="AH61">
+        <v>232.00025300000016</v>
+      </c>
+      <c r="AI61">
+        <v>539.07037000000014</v>
+      </c>
+      <c r="AJ61">
+        <v>198.57333940000026</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>8370.9083389999905</v>
       </c>
@@ -5916,23 +9359,51 @@
         <v>1.9827915869980799</v>
       </c>
       <c r="W62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.244883999999729</v>
       </c>
       <c r="X62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>122.79255299999932</v>
       </c>
       <c r="Y62">
+        <f t="shared" si="8"/>
+        <v>498.88904399999956</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="9"/>
+        <v>219.39388099999996</v>
+      </c>
+      <c r="AB62">
         <f t="shared" si="3"/>
-        <v>498.88904399999956</v>
-      </c>
-      <c r="Z62">
+        <v>117.93990133333318</v>
+      </c>
+      <c r="AC62">
         <f t="shared" si="4"/>
-        <v>219.39388099999996</v>
+        <v>194.23261833333345</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="5"/>
+        <v>535.33700799999986</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="6"/>
+        <v>232.43234766666623</v>
+      </c>
+      <c r="AG62">
+        <v>131.70775960000009</v>
+      </c>
+      <c r="AH62">
+        <v>213.29053440000024</v>
+      </c>
+      <c r="AI62">
+        <v>530.93393959999992</v>
+      </c>
+      <c r="AJ62">
+        <v>267.4475311999995</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>8474.4314839999897</v>
       </c>
@@ -5958,23 +9429,51 @@
         <v>1.9832558139534799</v>
       </c>
       <c r="W63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103.5231449999992</v>
       </c>
       <c r="X63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>256.1806030000007</v>
       </c>
       <c r="Y63">
+        <f t="shared" si="8"/>
+        <v>731.33077000000048</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="9"/>
+        <v>311.48432799999864</v>
+      </c>
+      <c r="AB63">
         <f t="shared" si="3"/>
-        <v>731.33077000000048</v>
-      </c>
-      <c r="Z63">
+        <v>105.77835366666659</v>
+      </c>
+      <c r="AC63">
         <f t="shared" si="4"/>
-        <v>311.48432799999864</v>
+        <v>191.77839766666693</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="5"/>
+        <v>558.63019633333295</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="6"/>
+        <v>336.79360133333222</v>
+      </c>
+      <c r="AG63">
+        <v>122.35618739999991</v>
+      </c>
+      <c r="AH63">
+        <v>222.4658292</v>
+      </c>
+      <c r="AI63">
+        <v>466.72051639999989</v>
+      </c>
+      <c r="AJ63">
+        <v>407.34461799999991</v>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>8598.9985159999906</v>
       </c>
@@ -6000,23 +9499,51 @@
         <v>1.98731884057971</v>
       </c>
       <c r="W64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124.56703200000084</v>
       </c>
       <c r="X64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>196.36203700000078</v>
       </c>
       <c r="Y64">
+        <f t="shared" si="8"/>
+        <v>445.67077499999868</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="9"/>
+        <v>479.50259499999811</v>
+      </c>
+      <c r="AB64">
         <f t="shared" si="3"/>
-        <v>445.67077499999868</v>
-      </c>
-      <c r="Z64">
+        <v>120.4947926666664</v>
+      </c>
+      <c r="AC64">
         <f t="shared" si="4"/>
-        <v>479.50259499999811</v>
+        <v>261.93729800000011</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="5"/>
+        <v>486.30744266666687</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="6"/>
+        <v>550.3034583333332</v>
+      </c>
+      <c r="AG64">
+        <v>153.06918799999985</v>
+      </c>
+      <c r="AH64">
+        <v>264.55194779998021</v>
+      </c>
+      <c r="AI64">
+        <v>511.61000519999942</v>
+      </c>
+      <c r="AJ64">
+        <v>423.42995919999959</v>
       </c>
     </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>8732.3927169999897</v>
       </c>
@@ -6042,23 +9569,51 @@
         <v>1.9876434245366199</v>
       </c>
       <c r="W65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133.39420099999916</v>
       </c>
       <c r="X65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>333.26925399999891</v>
       </c>
       <c r="Y65">
+        <f t="shared" si="8"/>
+        <v>281.92078300000139</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="9"/>
+        <v>859.92345200000273</v>
+      </c>
+      <c r="AB65">
         <f t="shared" si="3"/>
-        <v>281.92078300000139</v>
-      </c>
-      <c r="Z65">
+        <v>190.85930366666676</v>
+      </c>
+      <c r="AC65">
         <f t="shared" si="4"/>
-        <v>859.92345200000273</v>
+        <v>314.59552766663364</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="5"/>
+        <v>442.61007066666571</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="6"/>
+        <v>528.75719566666646</v>
+      </c>
+      <c r="AG65">
+        <v>217.50052539999996</v>
+      </c>
+      <c r="AH65">
+        <v>331.92237920000008</v>
+      </c>
+      <c r="AI65">
+        <v>562.17395099999999</v>
+      </c>
+      <c r="AJ65">
+        <v>462.52343819999953</v>
       </c>
     </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>9047.00939499999</v>
       </c>
@@ -6084,23 +9639,51 @@
         <v>1.98799313893653</v>
       </c>
       <c r="W66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>314.61667800000032</v>
       </c>
       <c r="X66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>414.15529199990124</v>
       </c>
       <c r="Y66">
+        <f t="shared" si="8"/>
+        <v>600.23865399999704</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="9"/>
+        <v>246.84553999999844</v>
+      </c>
+      <c r="AB66">
         <f t="shared" si="3"/>
-        <v>600.23865399999704</v>
-      </c>
-      <c r="Z66">
+        <v>286.47081666666662</v>
+      </c>
+      <c r="AC66">
         <f t="shared" si="4"/>
-        <v>246.84553999999844</v>
+        <v>402.35641866666629</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="5"/>
+        <v>544.62273666666681</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="6"/>
+        <v>507.2100893333336</v>
+      </c>
+      <c r="AG66">
+        <v>255.05549419999988</v>
+      </c>
+      <c r="AH66">
+        <v>393.0480340000002</v>
+      </c>
+      <c r="AI66">
+        <v>547.36112199999991</v>
+      </c>
+      <c r="AJ66">
+        <v>454.87154260000023</v>
       </c>
     </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>9458.4109659999904</v>
       </c>
@@ -6126,23 +9709,51 @@
         <v>1.98835274542429</v>
       </c>
       <c r="W67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>411.40157100000033</v>
       </c>
       <c r="X67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>459.64471000009871</v>
       </c>
       <c r="Y67">
+        <f t="shared" si="8"/>
+        <v>751.70877300000211</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="9"/>
+        <v>414.86127599999963</v>
+      </c>
+      <c r="AB67">
         <f t="shared" si="3"/>
-        <v>751.70877300000211</v>
-      </c>
-      <c r="Z67">
+        <v>339.1054126666665</v>
+      </c>
+      <c r="AC67">
         <f t="shared" si="4"/>
-        <v>414.86127599999963</v>
+        <v>478.5362930000004</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="5"/>
+        <v>669.73801733333312</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="6"/>
+        <v>311.64388866666678</v>
+      </c>
+      <c r="AG67">
+        <v>287.67760974999965</v>
+      </c>
+      <c r="AH67">
+        <v>442.21953325000004</v>
+      </c>
+      <c r="AI67">
+        <v>572.78370875000019</v>
+      </c>
+      <c r="AJ67">
+        <v>448.71377950000078</v>
       </c>
     </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>9749.7089549999891</v>
       </c>
@@ -6168,20 +9779,48 @@
         <v>1.9943548387096699</v>
       </c>
       <c r="W68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>291.29798899999878</v>
       </c>
       <c r="X68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>561.8088770000013</v>
       </c>
       <c r="Y68">
+        <f t="shared" si="8"/>
+        <v>657.2666250000002</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="9"/>
+        <v>273.22485000000233</v>
+      </c>
+      <c r="AB68">
         <f t="shared" si="3"/>
-        <v>657.2666250000002</v>
-      </c>
-      <c r="Z68">
+        <v>351.34977999999956</v>
+      </c>
+      <c r="AC68">
         <f t="shared" si="4"/>
-        <v>273.22485000000233</v>
+        <v>510.72679350005001</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="5"/>
+        <v>704.48769900000116</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="6"/>
+        <v>344.04306300000098</v>
+      </c>
+      <c r="AG68">
+        <v>339.1054126666665</v>
+      </c>
+      <c r="AH68">
+        <v>478.5362930000004</v>
+      </c>
+      <c r="AI68">
+        <v>669.73801733333312</v>
+      </c>
+      <c r="AJ68">
+        <v>311.64388866666678</v>
       </c>
     </row>
   </sheetData>
